--- a/設計書/API仕様書.xlsx
+++ b/設計書/API仕様書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raige\Desktop\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA5CA4E-B67D-4ECF-A587-E9FA3000924B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B85CB9B-940E-4B07-A6F1-A78468735FFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="87">
   <si>
     <t>No</t>
   </si>
@@ -135,10 +135,6 @@
     <t>https://fat3lak1i2.execute-api.us-east-1.amazonaws.com/acsys/users/schedule/food</t>
   </si>
   <si>
-    <t>{'account_ID','add_date',
-'data:[{'food_name','food_calorie'}{}{}{}]}</t>
-  </si>
-  <si>
     <t>引数を受け取り、摂取カロリーを登録する</t>
   </si>
   <si>
@@ -146,10 +142,6 @@
   </si>
   <si>
     <t>https://fat3lak1i2.execute-api.us-east-1.amazonaws.com/acsys/users/schedule/motion</t>
-  </si>
-  <si>
-    <t>{'account_ID','add_date',
-'data';[{'motion_name','motion_calorie'}{}{}{}]}</t>
   </si>
   <si>
     <t>引数を受け取り、消費カロリーを登録する</t>
@@ -232,13 +224,93 @@
   </si>
   <si>
     <t>指定した日の消費、摂取したカロリーを取得する</t>
+  </si>
+  <si>
+    <t>{'account_token','add_date',
+'data:[{'food_name','food_calorie'}{}{}{}]}</t>
+  </si>
+  <si>
+    <t>{'account_token','add_date',
+'data';[{'motion_name','motion_calorie'}{}{}{}]}</t>
+  </si>
+  <si>
+    <t>food_ID,food_calorie,food_name</t>
+  </si>
+  <si>
+    <t>motion_ID,motion_calorie,motion_name</t>
+  </si>
+  <si>
+    <t>トレーニング動画のURL取得</t>
+  </si>
+  <si>
+    <t>https://fat3lak1i2.execute-api.us-east-1.amazonaws.com/acsys/calorie/trainingurl</t>
+  </si>
+  <si>
+    <t>url_ID,url,url_calorie,url_subtitle,url_title</t>
+  </si>
+  <si>
+    <t>引数を受け取り、トレーニング動画の情報を取得する</t>
+  </si>
+  <si>
+    <t>トレーニング動画のURL分類取得</t>
+  </si>
+  <si>
+    <t>トレーニング動画の存在する分類を取得する</t>
+  </si>
+  <si>
+    <t>account_token,account_weight,account_height,account_level,account_purpose</t>
+  </si>
+  <si>
+    <t>摂取カロリー削除</t>
+  </si>
+  <si>
+    <t>https://fat3lak1i2.execute-api.us-east-1.amazonaws.com/acsys/users/schedule/food/delete</t>
+  </si>
+  <si>
+    <t>intaked_ID</t>
+  </si>
+  <si>
+    <t>摂取カロリーテーブルの指定したレコードの削除</t>
+  </si>
+  <si>
+    <t>消費カロリー削除</t>
+  </si>
+  <si>
+    <t>https://fat3lak1i2.execute-api.us-east-1.amazonaws.com/acsys/users/schedule/motion/delete</t>
+  </si>
+  <si>
+    <t>burned_ID</t>
+  </si>
+  <si>
+    <t>消費カロリーテーブルの指定したレコードの削除</t>
+  </si>
+  <si>
+    <t>ログイン後パスワード変更</t>
+  </si>
+  <si>
+    <t>https://fat3lak1i2.execute-api.us-east-1.amazonaws.com/acsys/users/pass/change</t>
+  </si>
+  <si>
+    <t>account_token,current_pass,new_pass</t>
+  </si>
+  <si>
+    <t>パスワードの変更</t>
+  </si>
+  <si>
+    <t>仮パスワードの発行</t>
+  </si>
+  <si>
+    <t>https://fat3lak1i2.execute-api.us-east-1.amazonaws.com/acsys/users/pass/forget</t>
+  </si>
+  <si>
+    <t>to_address</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +358,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -301,7 +386,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -354,12 +439,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -390,6 +505,30 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -672,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -683,10 +822,10 @@
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="23.19921875" customWidth="1"/>
     <col min="3" max="3" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="4" max="4" width="44.69921875" customWidth="1"/>
     <col min="5" max="5" width="39.5" customWidth="1"/>
-    <col min="6" max="6" width="18.09765625" customWidth="1"/>
-    <col min="7" max="7" width="56.5" customWidth="1"/>
+    <col min="6" max="6" width="33.19921875" customWidth="1"/>
+    <col min="7" max="7" width="67.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.600000000000001" thickBot="1">
@@ -712,337 +851,508 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="58.2" thickBot="1">
-      <c r="A2" s="3">
+    <row r="2" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="64.8" customHeight="1" thickBot="1">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="36.6" thickBot="1">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="60" customHeight="1" thickBot="1">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="141" thickBot="1">
-      <c r="A4" s="7">
+    <row r="5" spans="1:7" ht="162.6" customHeight="1" thickBot="1">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="36.6" thickBot="1">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="54.6" thickBot="1">
+        <v>20</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="36.6" thickBot="1">
       <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="44.4" thickBot="1">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G7" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="54.6" thickBot="1">
-      <c r="A7" s="7">
+    <row r="8" spans="1:7" ht="36.6" thickBot="1">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="54.6" thickBot="1">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="E8" s="8" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>36</v>
+      <c r="G8" s="17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="36.6" thickBot="1">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="36.6" thickBot="1">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="F10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="6" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="36.6" thickBot="1">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="36.6" thickBot="1">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="D11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="G11" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="36.6" thickBot="1">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="C12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="54.6" thickBot="1">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="E12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="5" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="36.6" thickBot="1">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="4" t="s">
+      <c r="C13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="54.6" thickBot="1">
-      <c r="A12" s="3">
+    <row r="14" spans="1:7" ht="36.6" thickBot="1">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="36.6" thickBot="1">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="36.6" thickBot="1">
+      <c r="A16" s="11">
+        <v>14</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="54.6" thickBot="1">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
+      <c r="G16" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="5" t="s">
+    </row>
+    <row r="17" spans="1:7" ht="36.6" thickBot="1">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="9" t="s">
+      <c r="C17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="36.6" thickBot="1">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="54.6" thickBot="1">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="54.6" thickBot="1">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="54.6" thickBot="1">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>62</v>
+      <c r="G19" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="54.6" thickBot="1">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="36.6" thickBot="1">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="36.6" thickBot="1">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{9752294B-8A4F-4B63-88EB-94FA21C7BEDB}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{51634F64-400B-4728-96DA-4BDE74F0F124}"/>
-    <hyperlink ref="D4" r:id="rId3" display="https://fat3lak1i2.execute-api.us-east-1.amazonaws.com/acsys/infomation" xr:uid="{D731219C-A601-42C1-AC18-3A66A14ACF76}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{672C37B1-9DF5-4C6C-9CE4-84A67E71AEEC}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{E073184B-5FBE-4464-BD49-40D3C2AFB199}"/>
-    <hyperlink ref="D7" r:id="rId6" display="https://fat3lak1i2.execute-api.us-east-1.amazonaws.com/acsys/food" xr:uid="{42483C0E-A444-4E39-8AF9-85510CE69614}"/>
-    <hyperlink ref="D8" r:id="rId7" display="https://fat3lak1i2.execute-api.us-east-1.amazonaws.com/acsys/motion" xr:uid="{6D919BD4-3530-4FFF-9EE6-3E50A3114935}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{CA0B1592-AE0E-4D42-AC04-97813B113D92}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{9E0B836F-61A7-40A7-9E5F-3196B32B6A57}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{9ED1798D-B02B-4AE6-86AF-504E593AB37B}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{F804F1EB-5D59-465B-9E3E-8E400EC14E96}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{D4B52F21-14C5-4D77-9018-B89C2F4AF6B2}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{F032A1E5-404F-4EF8-AE90-C3DAEBE6F537}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{B9C51FD7-81B3-4BD9-98CC-B908CD9CEA15}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{E5F18FA9-7D16-4A73-8EEE-21BFB74FE149}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{760FB961-D7F8-45A8-8B80-FBF3644BAFBC}"/>
+    <hyperlink ref="D5" r:id="rId3" display="https://fat3lak1i2.execute-api.us-east-1.amazonaws.com/acsys/infomation" xr:uid="{DB97C3DC-4778-486E-AE56-F8B71114E767}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{28DA781C-D7FE-4B97-A375-9217ED21A1F5}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{5425B03D-E5CF-405D-88E5-DBEF374446C7}"/>
+    <hyperlink ref="D8" r:id="rId6" display="https://fat3lak1i2.execute-api.us-east-1.amazonaws.com/acsys/food" xr:uid="{F5328459-3336-4F77-9BCD-0DEC6C07CD6A}"/>
+    <hyperlink ref="D9" r:id="rId7" display="https://fat3lak1i2.execute-api.us-east-1.amazonaws.com/acsys/motion" xr:uid="{8C01ABF2-6FE2-4EFB-B5BC-9233F80121C3}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{2AAE3398-6A8B-40DF-8689-C5CCBA39C6E2}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{1D0DA1B8-B57B-4BAD-9E52-BC0107816DD3}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{C5D9BFAF-BB54-4CBC-98A4-80B7D6DE193F}"/>
+    <hyperlink ref="D13" r:id="rId11" xr:uid="{2E968B74-84A7-4673-9189-8C3D2EA075B7}"/>
+    <hyperlink ref="D14" r:id="rId12" xr:uid="{FC9FB2F3-B654-410A-B56C-E683257EA07B}"/>
+    <hyperlink ref="D15" r:id="rId13" xr:uid="{73623223-C760-459F-9CEA-F70E6AA8DCFE}"/>
+    <hyperlink ref="D16" r:id="rId14" xr:uid="{061579E1-03D5-48E9-A8E1-B39F71084075}"/>
+    <hyperlink ref="D17" r:id="rId15" xr:uid="{7D9F2608-D8AD-4638-A91B-89364332A7A3}"/>
+    <hyperlink ref="D18" r:id="rId16" xr:uid="{DD6EA285-521D-47E0-A87C-5E06E015B724}"/>
+    <hyperlink ref="D19" r:id="rId17" display="https://fat3lak1i2.execute-api.us-east-1.amazonaws.com/acsys/users/schedule/motion/delete" xr:uid="{14E444BD-8708-46EC-A501-E03764A78085}"/>
+    <hyperlink ref="D20" r:id="rId18" xr:uid="{7723ECC2-CA0D-40B0-A7C1-4C2F1D381612}"/>
+    <hyperlink ref="D21" r:id="rId19" xr:uid="{7FAC5479-D13C-477B-96AC-785EF66F8116}"/>
+    <hyperlink ref="D22" r:id="rId20" xr:uid="{0636740D-EC79-4FB8-80EC-F8D6B7CBA54E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>